--- a/lab4/Time_counting.xlsx
+++ b/lab4/Time_counting.xlsx
@@ -141,11 +141,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1103557050"/>
-        <c:axId val="567411520"/>
+        <c:axId val="1844066794"/>
+        <c:axId val="1399899139"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1103557050"/>
+        <c:axId val="1844066794"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -197,10 +197,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567411520"/>
+        <c:crossAx val="1399899139"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567411520"/>
+        <c:axId val="1399899139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -275,7 +275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1103557050"/>
+        <c:crossAx val="1844066794"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -367,11 +367,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="772177106"/>
-        <c:axId val="698553566"/>
+        <c:axId val="1119603239"/>
+        <c:axId val="1697606981"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="772177106"/>
+        <c:axId val="1119603239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,10 +423,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698553566"/>
+        <c:crossAx val="1697606981"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="698553566"/>
+        <c:axId val="1697606981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +501,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="772177106"/>
+        <c:crossAx val="1119603239"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -593,11 +593,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="946803953"/>
-        <c:axId val="755391232"/>
+        <c:axId val="2044272099"/>
+        <c:axId val="1252554692"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="946803953"/>
+        <c:axId val="2044272099"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,10 +649,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755391232"/>
+        <c:crossAx val="1252554692"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="755391232"/>
+        <c:axId val="1252554692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +727,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946803953"/>
+        <c:crossAx val="2044272099"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1056,13 +1056,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>480.0</v>
+        <v>640.0</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>36.99894</v>
+        <v>38.06005</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D6" si="1">$C$2/C2</f>
@@ -1082,11 +1082,11 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" si="1"/>
-        <v>1.79137443</v>
+        <v>1.8427501</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="2"/>
-        <v>0.8956872151</v>
+        <v>0.92137505</v>
       </c>
     </row>
     <row r="4">
@@ -1094,15 +1094,15 @@
         <v>4.0</v>
       </c>
       <c r="C4" s="1">
-        <v>12.73748</v>
+        <v>11.03748</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>2.904729978</v>
+        <v>3.448255399</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="2"/>
-        <v>0.7261824945</v>
+        <v>0.8620638497</v>
       </c>
     </row>
     <row r="5">
@@ -1110,15 +1110,15 @@
         <v>8.0</v>
       </c>
       <c r="C5" s="1">
-        <v>8.388092</v>
+        <v>6.588092</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>4.410888674</v>
+        <v>5.777097527</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="2"/>
-        <v>0.5513610843</v>
+        <v>0.7221371909</v>
       </c>
     </row>
     <row r="6">
@@ -1126,15 +1126,15 @@
         <v>16.0</v>
       </c>
       <c r="C6" s="1">
-        <v>5.001639</v>
+        <v>3.601639</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>7.397363144</v>
+        <v>10.567425</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>0.4623351965</v>
+        <v>0.6604640623</v>
       </c>
     </row>
   </sheetData>

--- a/lab4/Time_counting.xlsx
+++ b/lab4/Time_counting.xlsx
@@ -141,11 +141,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1844066794"/>
-        <c:axId val="1399899139"/>
+        <c:axId val="403030019"/>
+        <c:axId val="1739157014"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1844066794"/>
+        <c:axId val="403030019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -197,10 +197,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1399899139"/>
+        <c:crossAx val="1739157014"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1399899139"/>
+        <c:axId val="1739157014"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -275,7 +275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844066794"/>
+        <c:crossAx val="403030019"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -367,11 +367,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1119603239"/>
-        <c:axId val="1697606981"/>
+        <c:axId val="1637085769"/>
+        <c:axId val="1594493463"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1119603239"/>
+        <c:axId val="1637085769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,10 +423,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697606981"/>
+        <c:crossAx val="1594493463"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1697606981"/>
+        <c:axId val="1594493463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +501,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1119603239"/>
+        <c:crossAx val="1637085769"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -593,11 +593,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2044272099"/>
-        <c:axId val="1252554692"/>
+        <c:axId val="2043963871"/>
+        <c:axId val="2096680939"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044272099"/>
+        <c:axId val="2043963871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,10 +649,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252554692"/>
+        <c:crossAx val="2096680939"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252554692"/>
+        <c:axId val="2096680939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +727,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044272099"/>
+        <c:crossAx val="2043963871"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
